--- a/data/income_statement/1digit/size/M_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/M_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>M-Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>M-Professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1160 +841,1310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4785535.42166</v>
+        <v>5270164.16206</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4681503.48962</v>
+        <v>5117446.115049999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5836031.94739</v>
+        <v>6350413.134980001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6775325.29846</v>
+        <v>7285134.0568</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8245603.74961</v>
+        <v>9116219.055080002</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11090330.95717</v>
+        <v>10206519.28497</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11295503.65087</v>
+        <v>12506930.33455</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13441238.36901</v>
+        <v>14798384.71558</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>18766780.24061</v>
+        <v>20089681.19155</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>18064209.34628</v>
+        <v>20628722.1606</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21122120.39141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23849343.51445</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27559812.42</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4294732.824779999</v>
+        <v>4675895.067570001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4240309.30624</v>
+        <v>4575893.19582</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5237679.313219999</v>
+        <v>5701079.60692</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6019856.98253</v>
+        <v>6398393.12088</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7231757.63032</v>
+        <v>7956606.014179999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9893034.917850001</v>
+        <v>8870286.967399999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9777241.588639999</v>
+        <v>10854092.79401</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11804781.35157</v>
+        <v>12902793.13985</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>16030156.61557</v>
+        <v>17040009.36118</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15953250.35671</v>
+        <v>18116570.09513</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18184458.66012999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20460488.2712</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22762117.14</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>373428.1182699999</v>
+        <v>390242.1334</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>331355.3522600001</v>
+        <v>338184.1207</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>481538.3938799999</v>
+        <v>469948.35462</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>569472.19149</v>
+        <v>619167.3104</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>769788.528</v>
+        <v>824038.6759000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>964256.5186900002</v>
+        <v>966635.94019</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1283732.07038</v>
+        <v>1322675.02541</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1282981.91995</v>
+        <v>1400707.96205</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2252408.67884</v>
+        <v>2433221.396850001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1478922.2466</v>
+        <v>1598537.94178</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2107994.75155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2242874.7916</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3770845.059</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>117374.47861</v>
+        <v>204026.96109</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>109838.83112</v>
+        <v>203368.79853</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>116814.24029</v>
+        <v>179385.17344</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>185996.12444</v>
+        <v>267573.6255200001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>244057.59129</v>
+        <v>335574.365</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>233039.52063</v>
+        <v>369596.37738</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>234529.99185</v>
+        <v>330162.5151300001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>353475.09749</v>
+        <v>494883.6136800001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>484214.9462000001</v>
+        <v>616450.4335199998</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>632036.7429699999</v>
+        <v>913614.12369</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>829666.97973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1145980.45165</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1026850.221</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>52719.18585</v>
+        <v>46193.40868</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>60238.74675999999</v>
+        <v>51993.71209</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>97528.59839</v>
+        <v>97320.39512</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>109448.78039</v>
+        <v>173083.71698</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>185224.96904</v>
+        <v>174847.80383</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1834818.03069</v>
+        <v>117948.53886</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>181482.99093</v>
+        <v>208385.31409</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>175724.45052</v>
+        <v>213528.33549</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>217556.00411</v>
+        <v>253004.3291</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>315182.7045599999</v>
+        <v>359612.841</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>421349.11051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>455275.8505</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>477745.97</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>43810.00749000001</v>
+        <v>38267.3727</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>51876.1165</v>
+        <v>45794.50239000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>91976.64249</v>
+        <v>91370.07481000002</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>75537.45531</v>
+        <v>121791.12642</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>150080.22447</v>
+        <v>139770.0355</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1812983.68792</v>
+        <v>94679.38555999998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>162176.4536</v>
+        <v>183610.24797</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>146015.08116</v>
+        <v>173553.33474</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>176344.46914</v>
+        <v>208754.79827</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>265269.8094399999</v>
+        <v>310101.59802</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>370799.6027199999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>408075.3842</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>390731.943</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4800.172820000001</v>
+        <v>3725.92458</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7135.2206</v>
+        <v>4239.358939999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3590.19163</v>
+        <v>3285.70209</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5096.48697</v>
+        <v>5657.99365</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>31142.09081</v>
+        <v>31332.08614</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>15756.09454</v>
+        <v>17342.00625</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>13165.15201</v>
+        <v>19129.76055</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>24311.52699</v>
+        <v>35663.96801</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>32440.11865</v>
+        <v>38575.00370000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>40975.05787999999</v>
+        <v>38631.63229</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>37861.45537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>33733.17361999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>71733.376</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4109.00554</v>
+        <v>4200.111400000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1227.40966</v>
+        <v>1959.85076</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1961.76427</v>
+        <v>2664.61822</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>28814.83811</v>
+        <v>45634.59691000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4002.65376</v>
+        <v>3745.68219</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6078.248230000001</v>
+        <v>5927.14705</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6141.385319999999</v>
+        <v>5645.30557</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5397.84237</v>
+        <v>4311.03274</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8771.41632</v>
+        <v>5674.527129999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8937.837239999999</v>
+        <v>10879.61069</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12688.05242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13467.29268</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>15280.651</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4732816.235810001</v>
+        <v>5223970.753380002</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4621264.742860001</v>
+        <v>5065452.40296</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5738503.349</v>
+        <v>6253092.739860001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6665876.518069999</v>
+        <v>7112050.33982</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8060378.780569999</v>
+        <v>8941371.251250001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9255512.926479999</v>
+        <v>10088570.74611</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11114020.65994</v>
+        <v>12298545.02046</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13265513.91849</v>
+        <v>14584856.38009</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>18549224.23649999</v>
+        <v>19836676.86245</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17749026.64172</v>
+        <v>20269109.3196</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>20700771.2809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23394067.66395</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>27082066.45</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3630931.47582</v>
+        <v>3817292.71865</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3307388.36861</v>
+        <v>3444800.59205</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4212278.363589999</v>
+        <v>4386440.751039999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4933033.62047</v>
+        <v>5017312.76673</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6077336.980799999</v>
+        <v>6356585.475559999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6805942.436209999</v>
+        <v>7010106.898339999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8480034.053019999</v>
+        <v>8928987.557839999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10080160.98786</v>
+        <v>10583445.79316</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>14350662.61068</v>
+        <v>14786223.17419</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13784717.94751</v>
+        <v>14670666.43543</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>15825725.52213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16739172.0964</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>19740808.622</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>115868.89027</v>
+        <v>134488.11507</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>87260.85589000001</v>
+        <v>98369.55259000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>190511.79586</v>
+        <v>205485.92147</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>194907.37897</v>
+        <v>196103.8759</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>253488.78228</v>
+        <v>247077.58916</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>282644.26307</v>
+        <v>301339.91023</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>262554.42618</v>
+        <v>287973.46926</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>493436.4468599999</v>
+        <v>501813.26411</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>970861.6464399999</v>
+        <v>909294.7688499999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>537961.2715</v>
+        <v>494199.70918</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>590259.17503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>526173.5289799999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>846563.784</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>317481.0342</v>
+        <v>307441.58419</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>416120.37551</v>
+        <v>402635.7825800001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>688467.20505</v>
+        <v>676378.2982099999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>719302.36826</v>
+        <v>666630.8050000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>877359.4599</v>
+        <v>872017.5478200002</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1063093.04474</v>
+        <v>982051.3578100002</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1546029.94996</v>
+        <v>1494690.68503</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2105752.73339</v>
+        <v>2096475.74783</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3714956.45202</v>
+        <v>3693524.2422</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1885113.43006</v>
+        <v>1962432.17099</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2078510.22257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2250159.30263</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4424160.063</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2565682.83782</v>
+        <v>2744942.08832</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2778242.970939999</v>
+        <v>2898787.13047</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3317904.24373</v>
+        <v>3476428.94146</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3791874.65632</v>
+        <v>3926776.24816</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4929310.780389999</v>
+        <v>5194353.806259999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5427771.53254</v>
+        <v>5690976.733990001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6636383.59316</v>
+        <v>7111917.10835</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7432700.716210001</v>
+        <v>7921896.91386</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>9623446.794320002</v>
+        <v>10127519.11067</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11287226.52186</v>
+        <v>12156207.35844</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13076533.43365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13848941.29024</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>14369085.702</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>631898.7135299999</v>
+        <v>630420.93107</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>25764.16627</v>
+        <v>45008.12641000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>15395.11895</v>
+        <v>28147.5899</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>226949.21692</v>
+        <v>227801.83767</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>17177.95823</v>
+        <v>43136.53232000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>32433.59585999999</v>
+        <v>35738.89631</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35066.08372</v>
+        <v>34406.29519999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>48271.0914</v>
+        <v>63259.86735999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>41397.7179</v>
+        <v>55885.05247</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>74416.72409</v>
+        <v>57827.19682</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>80422.69088000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>113897.97455</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>100999.073</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1101884.75999</v>
+        <v>1406678.03473</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1313876.37425</v>
+        <v>1620651.81091</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1526224.98541</v>
+        <v>1866651.98882</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1732842.8976</v>
+        <v>2094737.57309</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1983041.79977</v>
+        <v>2584785.77569</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2449570.49027</v>
+        <v>3078463.84777</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2633986.60692</v>
+        <v>3369557.46262</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3185352.93063</v>
+        <v>4001410.58693</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4198561.625820001</v>
+        <v>5050453.68826</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3964308.69421</v>
+        <v>5598442.884170001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4875045.75877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6654895.56755</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7341257.828</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>851144.91498</v>
+        <v>1194988.97895</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>966542.27545</v>
+        <v>1394408.83353</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1087506.97103</v>
+        <v>1540609.17342</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1253178.50376</v>
+        <v>1647795.2308</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1618108.34735</v>
+        <v>2207146.63989</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1890400.02332</v>
+        <v>2558023.78807</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2075374.74664</v>
+        <v>2914627.23141</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2382759.96243</v>
+        <v>3498671.53502</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2893563.36862</v>
+        <v>4242035.43957</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3051837.22</v>
+        <v>4887251.50006</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3849723.59051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5225801.45969</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5656906.255</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>27195.28265</v>
+        <v>27434.69037</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>41750.63288</v>
+        <v>40489.9186</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>21065.5567</v>
+        <v>19727.53955</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>41567.49708000001</v>
+        <v>39697.54695</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>38232.0897</v>
+        <v>37666.69708000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>55231.7791</v>
+        <v>51399.36684</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>51271.96743</v>
+        <v>45250.85881000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>95402.49151000001</v>
+        <v>86290.72519999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>123382.47778</v>
+        <v>109752.84269</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>148148.57856</v>
+        <v>145299.74114</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>284997.91497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>272124.11348</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>335959.665</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>132367.07322</v>
+        <v>135288.04251</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>149342.78672</v>
+        <v>150657.84503</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>153142.6013599999</v>
+        <v>165776.66448</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>141310.68217</v>
+        <v>152049.39413</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>251515.64547</v>
+        <v>229246.75617</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>284668.5254300002</v>
+        <v>299986.4617700001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>302033.14564</v>
+        <v>298339.27551</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>339805.88102</v>
+        <v>337323.28216</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>431111.48257</v>
+        <v>434785.73465</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>356659.72434</v>
+        <v>429293.79245</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>491027.57911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>555234.1081</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>583883.039</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>691582.5591100001</v>
+        <v>1032266.24607</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>775448.8558499999</v>
+        <v>1203261.0699</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>913298.8129700002</v>
+        <v>1355104.96939</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1070300.32451</v>
+        <v>1456048.28972</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1328360.61218</v>
+        <v>1940233.18664</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1550499.71879</v>
+        <v>2206637.95946</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1722069.63357</v>
+        <v>2571037.09709</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1947551.5899</v>
+        <v>3075057.52766</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2339069.40827</v>
+        <v>3697496.862230001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2547028.9171</v>
+        <v>4312657.966469999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3073698.09643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4398443.23811</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4737063.551</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>250739.84501</v>
+        <v>211689.05578</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>347334.0988</v>
+        <v>226242.9773800001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>438718.0143800001</v>
+        <v>326042.8154</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>479664.39384</v>
+        <v>446942.3422899999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>364933.4524199999</v>
+        <v>377639.1358</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>559170.46695</v>
+        <v>520440.0597</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>558611.86028</v>
+        <v>454930.2312100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>802592.9682000001</v>
+        <v>502739.05191</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1304998.2572</v>
+        <v>808418.2486899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>912471.4742099999</v>
+        <v>711191.3841100001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1025322.16826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1429094.10786</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1684351.573</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>353843.27784</v>
+        <v>2019678.78262</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>408910.80269</v>
+        <v>2194834.03541</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>451656.6877899999</v>
+        <v>3220018.863880001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>395376.30391</v>
+        <v>2179510.113800001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>711383.3516800001</v>
+        <v>6404652.507609999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>758531.2223800001</v>
+        <v>4100855.02489</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1069418.17034</v>
+        <v>5701038.471510001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>994312.4144600001</v>
+        <v>7501490.986170001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1374180.12397</v>
+        <v>10347940.57225</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6425648.567679998</v>
+        <v>38228138.87706001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4066126.38214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>26848173.42239</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26513383.899</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>28918.42697</v>
+        <v>256682.8793</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>41554.83189</v>
+        <v>192445.11432</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>64496.21152</v>
+        <v>550158.4845799999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>49930.9013</v>
+        <v>476382.03462</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>98309.7896</v>
+        <v>560228.82339</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>118595.78225</v>
+        <v>359252.64837</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>135932.17338</v>
+        <v>507743.42537</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>113240.57747</v>
+        <v>864762.1886</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>304585.4613</v>
+        <v>479599.9387700001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>511527.51045</v>
+        <v>1135974.23885</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>459985.3857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1138174.35018</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>466998.042</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>14426.8781</v>
+        <v>419347.23801</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>24471.79706</v>
+        <v>839855.61297</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>23011.57896</v>
+        <v>416954.8413900001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>21606.48775</v>
+        <v>610144.6227700001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>56862.63945</v>
+        <v>1052094.07497</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>79784.37700000001</v>
+        <v>698008.05647</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>68194.61725</v>
+        <v>961917.20148</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>55636.6456</v>
+        <v>851199.35015</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>45164.41338000001</v>
+        <v>1659032.01719</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>307618.7823</v>
+        <v>6345533.36831</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>318537.58198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9270237.758879999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5496260.016</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>42381.59501</v>
+        <v>253388.62399</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>39249.37323</v>
+        <v>205046.20802</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>45296.52385999999</v>
+        <v>436569.9859</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>64360.44953000001</v>
+        <v>291019.2264200001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>74288.90761000001</v>
+        <v>608977.41953</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>93838.80863000001</v>
+        <v>462267.94414</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>108531.48216</v>
+        <v>398339.67458</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>120250.52244</v>
+        <v>430558.95261</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>168175.03545</v>
+        <v>968822.29168</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>328253.04408</v>
+        <v>3306461.717410001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>387915.1916700001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2598440.91404</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1962795.934</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>10198.80212</v>
+        <v>14783.10955</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>10110.81422</v>
+        <v>15876.88707</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1064.23436</v>
+        <v>11936.90086</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2492.376</v>
+        <v>10657.12428</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3846.67562</v>
+        <v>19733.56732</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4201.00307</v>
+        <v>20982.98631</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5270.545740000001</v>
+        <v>26806.55032</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5171.534799999999</v>
+        <v>28107.877</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>10677.41695</v>
+        <v>38897.10497</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11788.16313</v>
+        <v>65265.88759000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3739.16318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>71123.52426000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>44722.826</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>10097.79788</v>
+        <v>10465.85704</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7365.649550000001</v>
+        <v>12703.12597</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5764.4921</v>
+        <v>9430.09909</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>10960.52604</v>
+        <v>12367.7271</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>43358.59219</v>
+        <v>18572.86806</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9760.88925</v>
+        <v>136396.30791</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11843.60969</v>
+        <v>136280.26023</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>16520.68803</v>
+        <v>153976.27957</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>30377.91379</v>
+        <v>175423.48216</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>74578.08777</v>
+        <v>47526.30908000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>83703.77405999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>38543.47833000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>39806.194</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>33883.2568</v>
+        <v>129421.44336</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42548.76104</v>
+        <v>109592.61243</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22956.34349</v>
+        <v>82311.92515</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>22312.59798</v>
+        <v>58130.28302</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>49198.81421000001</v>
+        <v>244280.0161</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>17349.66652</v>
+        <v>267471.73829</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>52416.72777999999</v>
+        <v>78568.287</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>22330.85826</v>
+        <v>239828.83299</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>21183.5483</v>
+        <v>225378.1006</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>47710.63264</v>
+        <v>388323.81459</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>95459.33290000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>331989.62486</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>827411.554</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>146727.48387</v>
+        <v>743417.2006699998</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>157946.85606</v>
+        <v>682561.64102</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>210461.71315</v>
+        <v>1592087.39583</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>141135.94632</v>
+        <v>513685.95015</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>296881.6069100001</v>
+        <v>3645017.71487</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>315115.79627</v>
+        <v>1854299.41322</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>552522.9237299999</v>
+        <v>3185598.81778</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>531117.7233600001</v>
+        <v>4424104.73325</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>637369.7048200001</v>
+        <v>5963051.434359998</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4823820.73145</v>
+        <v>25367345.63095</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2428736.44989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12509818.63266</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16843980.345</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>5056.85285</v>
+        <v>4864.628269999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>8505.41459</v>
+        <v>9514.02651</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>412.63646</v>
+        <v>359.38511</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>655.0563400000001</v>
+        <v>503.77738</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1230.10513</v>
+        <v>6273.70341</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>282.62119</v>
+        <v>330.14022</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1877.38245</v>
+        <v>979.78715</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>205.33285</v>
+        <v>173.73296</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>51.33494</v>
+        <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>549.9730500000001</v>
+        <v>547.1836500000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>4562.86535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2850.4302</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>28438.851</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1894.0024</v>
+        <v>1374.54612</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>300.52984</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>160.3511</v>
+        <v>148.3511</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8.63632</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>13.03525</v>
+        <v>557.10948</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2102,304 +2153,344 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>934.69491</v>
+        <v>0.10555</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1110.64567</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>7.95833</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>2531.89867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>2480.76136</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>60258.18184</v>
+        <v>185933.25631</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>76856.77521000001</v>
+        <v>126938.27726</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>78032.60278999999</v>
+        <v>120061.49487</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>81913.32632999998</v>
+        <v>206619.36806</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>87393.18570999998</v>
+        <v>248917.21048</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>119602.2782</v>
+        <v>301845.78996</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>132828.70816</v>
+        <v>404804.4675999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>128903.83674</v>
+        <v>508778.93349</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>155484.64937</v>
+        <v>837736.2025199999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>319793.6844799999</v>
+        <v>1571160.72663</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>280954.7387400001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>884513.9476200001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>802970.137</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>182735.34825</v>
+        <v>814191.21796</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>197892.32247</v>
+        <v>793119.7938999998</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>252175.99773</v>
+        <v>742291.2770700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>197407.22213</v>
+        <v>555265.3008900002</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>372290.77735</v>
+        <v>2849963.697380001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>483958.3115900001</v>
+        <v>1908277.67362</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>551630.7420900002</v>
+        <v>2776105.48658</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>533136.58727</v>
+        <v>4215845.58015</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>824613.72514</v>
+        <v>6244351.845409999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4972263.750340001</v>
+        <v>23246726.60837001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2539363.13408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11655541.32137</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>15540441.752</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3850.8145</v>
+        <v>8737.192790000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4820.10781</v>
+        <v>10075.62176</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7248.46699</v>
+        <v>14472.01862</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7951.012729999999</v>
+        <v>12721.18422</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8750.139230000001</v>
+        <v>9411.86393</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10491.29927</v>
+        <v>11409.37999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14112.92719</v>
+        <v>14226.29704</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9690.657680000002</v>
+        <v>10918.26825</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>13007.4764</v>
+        <v>11305.93166</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>17793.94364</v>
+        <v>45749.96037</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8622.84791</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19192.02168</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>22668.914</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>13475.17431</v>
+        <v>24549.03975</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>14819.51491</v>
+        <v>18389.91904</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>14708.22489</v>
+        <v>30065.8247</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>21708.34869</v>
+        <v>25355.46095</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18492.07176</v>
+        <v>24659.53076</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>21161.24623</v>
+        <v>78308.96030000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>42189.49398</v>
+        <v>59024.46966</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>69654.22433000001</v>
+        <v>53200.69839</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>49661.95805000001</v>
+        <v>76929.75094</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>158098.78519</v>
+        <v>83507.93532999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>78070.85668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>75249.94749999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>69131.34</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>5471.301210000001</v>
+        <v>11547.89921</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>26565.17059</v>
+        <v>4281.409549999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>10813.63061</v>
+        <v>9793.03263</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4739.32937</v>
+        <v>25821.44417</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>70496.29033999999</v>
+        <v>42985.42017</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>144149.0763</v>
+        <v>141893.93006</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>7587.641659999999</v>
+        <v>17141.88765</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>7037.335819999999</v>
+        <v>4375.12161</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>147238.83293</v>
+        <v>139928.98531</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>42785.31228</v>
+        <v>111987.71318</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6432.50491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>45663.17626</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>334135.969</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>143423.4002100001</v>
+        <v>718223.7872799999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>141391.74142</v>
+        <v>629370.6976299997</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>185290.25974</v>
+        <v>632892.8976700002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>134626.94152</v>
+        <v>430503.2380199999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>254731.75847</v>
+        <v>2638939.43817</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>266090.98653</v>
+        <v>1589814.36087</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>438267.45577</v>
+        <v>2555875.39341</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>415870.6000400001</v>
+        <v>4009790.39051</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>564792.66927</v>
+        <v>5509748.84432</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4686242.83004</v>
+        <v>21592222.03728</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2309745.1642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11037170.11445</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>14695655.077</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>69.72451000000001</v>
+        <v>2403.44434</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>21.87835</v>
+        <v>367.4978</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>30.69152</v>
+        <v>12.41848</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>487.79327</v>
+        <v>425.91484</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1612.79004</v>
+        <v>27.23388</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2038.80499</v>
+        <v>1113.86183</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2380.83075</v>
+        <v>859.18529</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>691.5385500000001</v>
+        <v>153.49119</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1535.43623</v>
+        <v>910.62621</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1173.06371</v>
+        <v>47.44669</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11270.86201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>11137.28131</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>23540.321</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>119.60205</v>
+        <v>118.2092</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>423.68892</v>
+        <v>14.35337</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>713.3921899999999</v>
+        <v>225.94466</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>157.54026</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>713.00533</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>16325.33146</v>
+        <v>48611.64539000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9850.220470000002</v>
+        <v>130620.29475</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>33371.33179</v>
+        <v>54829.14031</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>27893.79655</v>
+        <v>60438.05869000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18207.72750999999</v>
+        <v>133940.21047</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>39869.35801</v>
+        <v>85737.18057000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47092.39274</v>
+        <v>128978.25353</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30192.23085</v>
+        <v>137407.6102</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>48377.35225999999</v>
+        <v>505527.7069700001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>66169.81547999999</v>
+        <v>1413211.51552</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>124507.89304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>466415.77484</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>395310.131</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>86824.66286</v>
+        <v>371517.70132</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>93405.11917000001</v>
+        <v>368505.4115399999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>104479.97737</v>
+        <v>892917.1035499999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>111140.30816</v>
+        <v>478546.8950099999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>156846.09015</v>
+        <v>2008904.20939</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>210153.09048</v>
+        <v>1195652.38652</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>283910.77269</v>
+        <v>2051838.536130001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>298591.7952099999</v>
+        <v>2358674.49645</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>345470.96319</v>
+        <v>2836728.28525</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>631303.75339</v>
+        <v>15205130.83456</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>636867.8042600002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9193673.836120004</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9420906.060000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>73428.74940999999</v>
+        <v>263398.61565</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>82387.89956000001</v>
+        <v>277496.08467</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>95485.76052000001</v>
+        <v>396924.81061</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>102749.32403</v>
+        <v>341135.8647799999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>143268.52722</v>
+        <v>1137720.43637</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>192422.51867</v>
+        <v>758381.4925699999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>259624.46373</v>
+        <v>1213442.0286</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>255061.10337</v>
+        <v>1750579.79448</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>328815.54717</v>
+        <v>2133769.12405</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>545845.6704999999</v>
+        <v>9249515.652860001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>601906.11613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6142138.16296</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6118098.09</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>13395.91345</v>
+        <v>108119.08567</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>11017.21961</v>
+        <v>91009.32686999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>8994.216850000001</v>
+        <v>495992.29294</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8390.984130000001</v>
+        <v>137411.03023</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>13577.56293</v>
+        <v>871183.77302</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17730.57181</v>
+        <v>437270.89395</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>24286.30896</v>
+        <v>838396.5075299999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>43530.69184000001</v>
+        <v>608094.7019699999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>16655.41602</v>
+        <v>702959.1612000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>85458.08289000001</v>
+        <v>5955615.181700001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>34961.68812999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3051535.67316</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3302807.97</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>335023.1117400001</v>
+        <v>1045658.91912</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>464947.4598499999</v>
+        <v>1259451.80735</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>533718.72707</v>
+        <v>1910853.29866</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>566493.1674599999</v>
+        <v>1592640.26019</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>547179.9366000001</v>
+        <v>1923423.73664</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>623590.28726</v>
+        <v>1517365.02445</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>792488.5158399999</v>
+        <v>1328024.68001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>965177.0001800002</v>
+        <v>1429709.96148</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1509093.69284</v>
+        <v>2075278.69028</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1734552.53816</v>
+        <v>487472.8182399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1915217.61206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7428052.372760001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3236387.66</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>52976.36802000001</v>
+        <v>444898.2559499999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>36744.73951999999</v>
+        <v>1169320.81515</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>46252.88041999999</v>
+        <v>302719.62209</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>61673.77575</v>
+        <v>923850.6118300001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>66999.424</v>
+        <v>315590.62714</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>111773.32216</v>
+        <v>369259.12859</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>140030.50993</v>
+        <v>615299.0224499999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>150725.22485</v>
+        <v>977254.6309199998</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>210979.9673</v>
+        <v>4137841.66051</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>294441.35973</v>
+        <v>6756069.016179999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>391670.62016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4245697.616400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1474396.131</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2203.91266</v>
+        <v>2224.46754</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>867.05651</v>
+        <v>2110.83589</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>783.2209099999998</v>
+        <v>3110.53744</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>860.91923</v>
+        <v>2228.52509</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2818.61546</v>
+        <v>5399.12293</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1171.96335</v>
+        <v>1689.26398</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1878.74069</v>
+        <v>2919.71704</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4636.919160000001</v>
+        <v>6197.279229999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3399.57145</v>
+        <v>3018.49534</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12532.85028</v>
+        <v>19682.86979</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>12167.32554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>26902.78959</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9295.306</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>50772.45536</v>
+        <v>442673.78841</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>35877.68300999999</v>
+        <v>1167209.97926</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>45469.65951</v>
+        <v>299609.08465</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>60812.85652</v>
+        <v>921622.0867399999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>64180.80854</v>
+        <v>310191.50421</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>110601.35881</v>
+        <v>367569.8646099999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>138151.76924</v>
+        <v>612379.3054099998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>146088.30569</v>
+        <v>971057.3516899998</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>207580.39585</v>
+        <v>4134823.165169999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>281908.50945</v>
+        <v>6736386.146389999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>379503.29462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4218794.82681</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1465100.825</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>51974.71539</v>
+        <v>130044.97573</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>82542.67456</v>
+        <v>154608.06428</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>270942.45534</v>
+        <v>773255.2903599999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>66779.47583</v>
+        <v>122953.94115</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>61445.84772</v>
+        <v>459569.3099700001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>236725.43534</v>
+        <v>470903.6049100001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>154522.05299</v>
+        <v>416839.61201</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>358647.44398</v>
+        <v>577326.85717</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>166985.67155</v>
+        <v>331292.99109</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>637919.41036</v>
+        <v>497164.90594</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>837557.0609100002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>557736.44447</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>475433.015</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>500.9766499999999</v>
+        <v>598.22412</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>442.17828</v>
+        <v>341.23512</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1283.04294</v>
+        <v>834.62338</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>506.33113</v>
+        <v>309.37471</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>368.46965</v>
+        <v>626.73401</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1557.50927</v>
+        <v>1162.15125</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>593.90633</v>
+        <v>478.33066</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1814.81291</v>
+        <v>646.2327700000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1623.85166</v>
+        <v>2229.60655</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2485.39601</v>
+        <v>3087.89733</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1810.36469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2816.01789</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3255.825</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>7289.933889999999</v>
+        <v>8164.755940000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4275.531120000001</v>
+        <v>21159.84178999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5492.972880000001</v>
+        <v>15433.33036</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3334.29852</v>
+        <v>11994.04173</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6817.95394</v>
+        <v>11562.30086</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6380.314179999998</v>
+        <v>78902.97880999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8432.23918</v>
+        <v>52524.25461</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>19501.67925</v>
+        <v>25009.90564</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8590.697890000001</v>
+        <v>30824.64087</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>37678.32421</v>
+        <v>18357.78777</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>35536.99103000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>44959.16222000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>48081.984</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>44183.80485</v>
+        <v>121281.99567</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>77824.96516000001</v>
+        <v>133106.98737</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>264166.43952</v>
+        <v>756987.3366199998</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>62938.84618</v>
+        <v>110650.52471</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>54259.42412999999</v>
+        <v>447380.2751</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>228787.61189</v>
+        <v>390838.47485</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>145495.90748</v>
+        <v>363837.0267399999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>337330.9518200001</v>
+        <v>551670.71876</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>156771.122</v>
+        <v>298238.7436700001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>597755.69014</v>
+        <v>475719.22084</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>800209.7051900001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>509961.2643599999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>424095.206</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>336024.7643699999</v>
+        <v>1360512.19934</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>419149.5248099999</v>
+        <v>2274164.55822</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>309029.15215</v>
+        <v>1440317.630389999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>561387.4673800002</v>
+        <v>2393536.93087</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>552733.5128800002</v>
+        <v>1779445.05381</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>498638.17408</v>
+        <v>1415720.54813</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>777996.9727800001</v>
+        <v>1526484.09045</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>757254.7810500001</v>
+        <v>1829637.73523</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1553087.98859</v>
+        <v>5881827.359700001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1391074.48753</v>
+        <v>6746376.928479999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1469331.17131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11116013.54469</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4235350.776</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>70513.25834999999</v>
+        <v>128873.10796</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>86601.65248999999</v>
+        <v>165295.68138</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>97885.4705</v>
+        <v>254952.90199</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>103515.50569</v>
+        <v>115249.45331</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>124546.5742</v>
+        <v>251034.57771</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>145639.11169</v>
+        <v>171059.04073</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>180403.45312</v>
+        <v>246306.51395</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>210238.95239</v>
+        <v>288479.4366199999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>280284.44675</v>
+        <v>415044.20796</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>354705.29062</v>
+        <v>795182.8820399999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>351918.4528499999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>452316.35002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>637427.302</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>265511.50602</v>
+        <v>1231639.09138</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>332547.87232</v>
+        <v>2108868.87684</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>211143.68165</v>
+        <v>1185364.7284</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>457871.9616899999</v>
+        <v>2278287.47756</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>428186.93868</v>
+        <v>1528410.4761</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>352999.06239</v>
+        <v>1244661.5074</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>597593.5196600001</v>
+        <v>1280177.5765</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>547015.8286599999</v>
+        <v>1541158.29861</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1272803.54184</v>
+        <v>5466783.151740001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1036369.19691</v>
+        <v>5951194.046440001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1117412.71846</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10663697.19467</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3597923.474</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>701</v>
+        <v>475</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>795</v>
+        <v>503</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>885</v>
+        <v>595</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1021</v>
+        <v>657</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>973</v>
+        <v>637</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1064</v>
+        <v>699</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1235</v>
+        <v>818</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1491</v>
+        <v>982</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1888</v>
+        <v>1198</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1085</v>
+        <v>770</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>763</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>